--- a/2016 Stronghold Summer Robot Controller Layout.xlsx
+++ b/2016 Stronghold Summer Robot Controller Layout.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hcrc\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
@@ -15,9 +10,9 @@
     <sheet name="X-Box Controller" sheetId="1" r:id="rId1"/>
     <sheet name="Joysticks" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>X-Box Controller</t>
   </si>
@@ -57,50 +52,89 @@
     <t>Left</t>
   </si>
   <si>
-    <t>Left 90 Degree Turn</t>
-  </si>
-  <si>
     <t>Right</t>
   </si>
   <si>
-    <t>Right 90 Degree Turn</t>
-  </si>
-  <si>
     <t>Down</t>
   </si>
   <si>
-    <t>180 Degree Turn</t>
-  </si>
-  <si>
     <t>Buttons</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Arm Down</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Arm Up</t>
-  </si>
-  <si>
     <t>Arcade Drive</t>
   </si>
   <si>
     <t>Right Trigger</t>
   </si>
   <si>
-    <t>Fine Drive Control</t>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Arm Up?</t>
+  </si>
+  <si>
+    <t>Arm Down?</t>
+  </si>
+  <si>
+    <t>Fine Drive Control?</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Left Trigger</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Bumpers</t>
+  </si>
+  <si>
+    <t>Left Bumper</t>
+  </si>
+  <si>
+    <t>Right Bumper</t>
+  </si>
+  <si>
+    <t>Joystick 1</t>
+  </si>
+  <si>
+    <t>Joystick 2</t>
+  </si>
+  <si>
+    <t>Joystick</t>
+  </si>
+  <si>
+    <t>Axes</t>
+  </si>
+  <si>
+    <t>Throttle</t>
+  </si>
+  <si>
+    <t>Left Joystick Button</t>
+  </si>
+  <si>
+    <t>Right Joystick Button</t>
+  </si>
+  <si>
+    <t>Select/Back</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,8 +163,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -152,6 +189,331 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="71J8QzMGahL._SL1300_.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="5334000"/>
+          <a:ext cx="12382500" cy="12382500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>416700</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>35700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>169050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>159525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="1638b1b81183871c981f49b04c4c0966.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5255400" y="2321700"/>
+          <a:ext cx="5238750" cy="2600325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>345300</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>243700</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>22225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Logitech Attack 3 Left View.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9365475" y="5610225"/>
+          <a:ext cx="12700000" cy="12700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>92850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>102375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Logitech Attack 3 Right View.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="180975" y="5807850"/>
+          <a:ext cx="8858250" cy="12392025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9344025" y="6324600"/>
+          <a:ext cx="352425" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7143750" y="6448425"/>
+          <a:ext cx="2200275" cy="1695450"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9696450" y="6448425"/>
+          <a:ext cx="4314825" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -197,7 +559,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -232,7 +594,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -409,34 +771,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -444,12 +806,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -457,10 +819,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -468,80 +830,117 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -549,19 +948,167 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/2016 Stronghold Summer Robot Controller Layout.xlsx
+++ b/2016 Stronghold Summer Robot Controller Layout.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\2016-stronghold-summer-robot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="X-Box Controller" sheetId="1" r:id="rId1"/>
     <sheet name="Joysticks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>X-Box Controller</t>
   </si>
@@ -76,12 +81,6 @@
     <t>Up</t>
   </si>
   <si>
-    <t>Arm Up?</t>
-  </si>
-  <si>
-    <t>Arm Down?</t>
-  </si>
-  <si>
     <t>Fine Drive Control?</t>
   </si>
   <si>
@@ -128,13 +127,25 @@
   </si>
   <si>
     <t>Select/Back</t>
+  </si>
+  <si>
+    <t>Ball Intake</t>
+  </si>
+  <si>
+    <t>Fire Ball Shooter</t>
+  </si>
+  <si>
+    <t>Arm Up</t>
+  </si>
+  <si>
+    <t>Arm Down</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,34 +782,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -806,12 +817,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -822,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -830,117 +841,129 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -953,23 +976,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
@@ -977,7 +1000,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -987,28 +1010,28 @@
       </c>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1020,84 +1043,95 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="2"/>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
+      <c r="C10" t="s">
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11</v>
       </c>

--- a/2016 Stronghold Summer Robot Controller Layout.xlsx
+++ b/2016 Stronghold Summer Robot Controller Layout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240"/>
   </bookViews>
   <sheets>
     <sheet name="X-Box Controller" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>X-Box Controller</t>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>Arm Down</t>
+  </si>
+  <si>
+    <t>Winch Down</t>
+  </si>
+  <si>
+    <t>Winch Up</t>
+  </si>
+  <si>
+    <t>Weave Lift Down</t>
+  </si>
+  <si>
+    <t>Weave Lift Up</t>
   </si>
 </sst>
 </file>
@@ -792,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -875,11 +887,23 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
@@ -910,12 +934,24 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -979,8 +1015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1092,11 +1128,23 @@
       <c r="A11">
         <v>4</v>
       </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -1126,14 +1174,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/2016 Stronghold Summer Robot Controller Layout.xlsx
+++ b/2016 Stronghold Summer Robot Controller Layout.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\2016-stronghold-summer-robot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
   </bookViews>
   <sheets>
     <sheet name="X-Box Controller" sheetId="1" r:id="rId1"/>
     <sheet name="Joysticks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>X-Box Controller</t>
   </si>
@@ -96,9 +91,6 @@
     <t>Start</t>
   </si>
   <si>
-    <t>Bumpers</t>
-  </si>
-  <si>
     <t>Left Bumper</t>
   </si>
   <si>
@@ -151,13 +143,19 @@
   </si>
   <si>
     <t>Weave Lift Up</t>
+  </si>
+  <si>
+    <t>Ball Aim</t>
+  </si>
+  <si>
+    <t>Triggers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -196,6 +194,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,34 +798,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:3">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -829,12 +833,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -845,7 +849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -853,137 +857,143 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
         <v>33</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
       <c r="C19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>18</v>
@@ -992,14 +1002,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1012,62 +1022,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.7265625" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1079,121 +1089,126 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/2016 Stronghold Summer Robot Controller Layout.xlsx
+++ b/2016 Stronghold Summer Robot Controller Layout.xlsx
@@ -1,18 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\2016-stronghold-summer-robot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="X-Box Controller" sheetId="1" r:id="rId1"/>
     <sheet name="Joysticks" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>X-Box Controller</t>
   </si>
@@ -76,9 +81,6 @@
     <t>Up</t>
   </si>
   <si>
-    <t>Fine Drive Control?</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -133,29 +135,20 @@
     <t>Arm Down</t>
   </si>
   <si>
-    <t>Winch Down</t>
-  </si>
-  <si>
-    <t>Winch Up</t>
-  </si>
-  <si>
-    <t>Weave Lift Down</t>
-  </si>
-  <si>
-    <t>Weave Lift Up</t>
-  </si>
-  <si>
     <t>Ball Aim</t>
   </si>
   <si>
     <t>Triggers</t>
+  </si>
+  <si>
+    <t>Fine Drive Control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,10 +189,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,34 +791,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -833,12 +826,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -849,7 +842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -857,159 +850,135 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1022,62 +991,62 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.1796875" customWidth="1"/>
+    <col min="4" max="4" width="20.7265625" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>27</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -1089,126 +1058,102 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>5</v>
       </c>
-      <c r="C12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" s="2"/>
-      <c r="C14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>10</v>
       </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
